--- a/log/DailyResult/DailyResult_2024-02-05.xlsx
+++ b/log/DailyResult/DailyResult_2024-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,28 +1004,20 @@
       <c r="D3" t="n">
         <v>2.8</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
+      <c r="E3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.77</v>
       </c>
       <c r="G3" t="n">
         <v>2.85</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+      <c r="H3" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>280</v>
       </c>
       <c r="J3" t="n">
         <v>2024</v>
@@ -1198,10 +1190,8 @@
       <c r="BJ3" t="b">
         <v>0</v>
       </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>4712</t>
-        </is>
+      <c r="BK3" t="n">
+        <v>4712</v>
       </c>
       <c r="BL3" t="n">
         <v>0.9</v>
@@ -1215,6 +1205,454 @@
         <v>2.8403545211707</v>
       </c>
       <c r="BO3" t="n">
+        <v>5.111085478829301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3357</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>280</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3.268792139006271</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.391896043283559</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1231039042772886</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02080983458661371</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.02080983458661371</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1022940696906749</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.84313725490196</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>490.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>635.58</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-22.87359577079204</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2197740253583865</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1148143428903037</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.06199999999999983</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.04349999999999943</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.4031700046277875</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.368840009255575</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.756159990744425</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>18.07909604519776</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.2199999999999998</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-3357</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-3349</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4712</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.8403545211707</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>5.111085478829301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3357</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024/02/05</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>3.268792139006271</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.391896043283559</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1231039042772886</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.02080983458661371</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.02080983458661371</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1022940696906749</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.84313725490196</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>490.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>635.58</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-22.87359577079204</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2197740253583865</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1148143428903037</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.06199999999999983</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.04349999999999943</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.4031700046277875</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.368840009255575</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.756159990744425</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>18.07909604519776</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.2199999999999998</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-3357</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-3349</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>4712</t>
+        </is>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BN5" t="n">
+        <v>2.8403545211707</v>
+      </c>
+      <c r="BO5" t="n">
         <v>5.111085478829301</v>
       </c>
     </row>
